--- a/inst/doc/postGGIR.output.description.xlsx
+++ b/inst/doc/postGGIR.output.description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\2\scp57351\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\postGGIR\vignettes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\2\scp49166\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\postGGIR\vignettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E76339F-21A6-4C20-B41B-DEC2E3D49083}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE95B76-EE9E-481B-A0DE-FF59647DC07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1425" windowWidth="31200" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="4095" windowWidth="23235" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output.format" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="392">
   <si>
     <t>call.afterggir(mode=0)</t>
   </si>
@@ -452,33 +452,18 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Variable Description</t>
-  </si>
-  <si>
     <t>Sleep</t>
   </si>
   <si>
     <t>acc_onset</t>
   </si>
   <si>
-    <t>Detected onset of sleep expressed as hours since the previous midnight</t>
-  </si>
-  <si>
     <t>acc_wake</t>
   </si>
   <si>
     <t>acc_dur_sibd</t>
   </si>
   <si>
-    <t>Accumulated sustained inactivty bouts during the day. These are the periods we would label during the night as sleep, but during the day they form a subclass of inactivity, which may represent day time sleep or wakefulness while being motionless for a sustained period of time</t>
-  </si>
-  <si>
-    <t>acc_n_noc</t>
-  </si>
-  <si>
-    <t>Number of noturnal sleep periods, with nocturnal referring to the Sleep Period</t>
-  </si>
-  <si>
     <t>acc_SleepDurationInSpt</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t>sleep_efficiency</t>
   </si>
   <si>
-    <t>Slee Efficiency</t>
-  </si>
-  <si>
     <t>N_atleast5minwakenight</t>
   </si>
   <si>
@@ -512,12 +494,6 @@
     <t>Nblocks_nightsleep</t>
   </si>
   <si>
-    <t>Number of blocks of night sleep</t>
-  </si>
-  <si>
-    <t>Physical Activiy</t>
-  </si>
-  <si>
     <t>TAC</t>
   </si>
   <si>
@@ -527,33 +503,12 @@
     <t>TLAC</t>
   </si>
   <si>
-    <t>Total volume of physical activity logtransform</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Time related feature from Time_long function</t>
-  </si>
-  <si>
     <t>dur_TINday_min</t>
   </si>
   <si>
     <t>Total duration of day in minutes spent in total inactivity during the day</t>
   </si>
   <si>
-    <t>dur_TSIBday_min</t>
-  </si>
-  <si>
-    <t>Total duration of day in minutes of sustained inactivity during the day</t>
-  </si>
-  <si>
-    <t>dur_TOINday_min</t>
-  </si>
-  <si>
-    <t>Total duration of day in minutes of other inactivity  during the day</t>
-  </si>
-  <si>
     <t>dur_TLIGday_min</t>
   </si>
   <si>
@@ -572,96 +527,12 @@
     <t>Total duration of day in minutes of vigorous activity during the day</t>
   </si>
   <si>
-    <t>dur_MVPA_D10T125_min</t>
-  </si>
-  <si>
-    <t>Total duration in minutes of Moderate and Vigorous Physical Activity (MVPA) for bouts 10 minutes or more over 125mg</t>
-  </si>
-  <si>
-    <t>dur_MVPA_D5T125_min</t>
-  </si>
-  <si>
-    <t>Total duration in minutes of Moderate and Vigorous Physical Activity (MVPA) for bouts 5 minutes or more over 125mg</t>
-  </si>
-  <si>
-    <t>dur_MVPA_D1T125_min</t>
-  </si>
-  <si>
-    <t>Total duration in minutes of Moderate and Vigorous Physical Activity (MVPA) for bouts 1 minutes or more over 125mg</t>
-  </si>
-  <si>
-    <t>Nbouts_INB_D10T50</t>
-  </si>
-  <si>
-    <t>Number of bouts of inactivity less than 50mg that are between 10-19.99 minutes long</t>
-  </si>
-  <si>
-    <t>Nbouts_INB_D20T50</t>
-  </si>
-  <si>
-    <t>Number of bouts of inactivity less than 50mg that are between 20-29.99 minutes long</t>
-  </si>
-  <si>
-    <t>Nbouts_INB_D30T50</t>
-  </si>
-  <si>
-    <t>Number of bouts of inactivity less than 50mg that are greater than 30 minutes</t>
-  </si>
-  <si>
-    <t>Nbouts_LIGB_D1T50_125</t>
-  </si>
-  <si>
-    <t>Number of bouts of light activity between 50mg to 125mg that are between 1-4.99 minutes long</t>
-  </si>
-  <si>
-    <t>Nbouts_LIGB_D5T50_125</t>
-  </si>
-  <si>
-    <t>Number of bouts of light activity between 50mg to 125mg that are between 5-9.99 minutes long</t>
-  </si>
-  <si>
-    <t>Nbouts_LIGB_D10T50_125</t>
-  </si>
-  <si>
-    <t>Number of bouts of light activity between 50mg to 125mg that are greater than 10 minutes</t>
-  </si>
-  <si>
-    <t>Nbouts_MVPA_D1T125</t>
-  </si>
-  <si>
-    <t>Number of bouts in Moderate to Vigorous Physical Activity over 125mg that are between 1-4.99 minutes</t>
-  </si>
-  <si>
-    <t>Nbouts_MVPA_D5T125</t>
-  </si>
-  <si>
-    <t>Number of bouts in Moderate to Vigorous Physical Activity over 125mg that are between 5-9.99 minutes</t>
-  </si>
-  <si>
-    <t>Nbouts_MVPA_D10T125</t>
-  </si>
-  <si>
-    <t>Number of bouts in Moderate to Vigorous Physical Activity over 125mg that are 10 minutes or longer</t>
-  </si>
-  <si>
     <t>Nblocks_TINday</t>
   </si>
   <si>
     <t>Number of blocks of total inactivity during day</t>
   </si>
   <si>
-    <t>Nblocks_TSIBday</t>
-  </si>
-  <si>
-    <t>Number of blocks of total sustained inactivity during day</t>
-  </si>
-  <si>
-    <t>Nblocks_TOINday</t>
-  </si>
-  <si>
-    <t>Number of blocks of total other inactivity during day</t>
-  </si>
-  <si>
     <t>Nblocks_TLIGday</t>
   </si>
   <si>
@@ -695,30 +566,18 @@
     <t>L5VALUE</t>
   </si>
   <si>
-    <t>Acceleration value (mg) of the lowest acceleration 5 hours</t>
-  </si>
-  <si>
     <t>M10VALUE</t>
   </si>
   <si>
-    <t>Acceleration value (mg) of the lowest acceleration value in highest acceleration 10 hours</t>
-  </si>
-  <si>
     <t>Circadian Rhythmicity</t>
   </si>
   <si>
     <t>RA_ggir</t>
   </si>
   <si>
-    <t>Relative amplitutde: (M10-L5)/(M10+L5) where M10= most active 10 hrs, L5 = least active 5 hour. Calculated by Part5.summary file</t>
-  </si>
-  <si>
     <t>RA</t>
   </si>
   <si>
-    <t>Relative amplitutde: (M10-L5)/(M10+L5) where M10= most active 10 hrs, L5 = least active 5 hour. Calculated by Junrui's R code</t>
-  </si>
-  <si>
     <t>IV</t>
   </si>
   <si>
@@ -728,57 +587,24 @@
     <t>amp_L</t>
   </si>
   <si>
-    <t>amplitude(a measure of variability around the mean)</t>
-  </si>
-  <si>
-    <t>alpha_L</t>
-  </si>
-  <si>
-    <t>alpha parameter (the relative width of the diurnal curve</t>
-  </si>
-  <si>
-    <t>beta_L</t>
-  </si>
-  <si>
-    <t>beta parameter (the steepness of the morning rise and evening fall of the diurnal curve</t>
-  </si>
-  <si>
     <t>acro_L</t>
   </si>
   <si>
     <t>acrophase (the timing of the peak activity)</t>
   </si>
   <si>
-    <t>F_imp_L</t>
-  </si>
-  <si>
-    <t>F-statistics (robustness of the rhythm)</t>
-  </si>
-  <si>
     <t>PC1</t>
   </si>
   <si>
-    <t>1st principal component score from FPCA</t>
-  </si>
-  <si>
     <t>PC2</t>
   </si>
   <si>
-    <t>2nd principal component score from FPCA</t>
-  </si>
-  <si>
     <t>PC3</t>
   </si>
   <si>
-    <t>3rd principal component score from FPCA</t>
-  </si>
-  <si>
     <t>PC4</t>
   </si>
   <si>
-    <t>4th principal component score from FPCA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> *Xs is the epoch size to which acceleration was averaged (seconds) in GGIR output</t>
   </si>
   <si>
@@ -924,16 +750,466 @@
   </si>
   <si>
     <t>Function PCA at the subject level using denseFLMM( ) on weekend</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>GGIR_1.9_Variable</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>sleeponset</t>
+  </si>
+  <si>
+    <t>Detected onset of sleep expressed as hours since the midnight of the previous night.</t>
+  </si>
+  <si>
+    <t>part4</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>wakeup</t>
+  </si>
+  <si>
+    <t>Detected waking time (after sleep period) expressed as hours since the midnight of the previous night.</t>
+  </si>
+  <si>
+    <t>number_sib_wakinghours</t>
+  </si>
+  <si>
+    <t>Number of sustained inactivity bouts during the day, with day referring to the time outside the Sleep Period Time window.</t>
+  </si>
+  <si>
+    <t>SleepDurationInSpt</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Sleep Efficiency</t>
+  </si>
+  <si>
+    <t>part5</t>
+  </si>
+  <si>
+    <t>ACC_spt_sleep_mg</t>
+  </si>
+  <si>
+    <t>Nblocks_spt_sleep</t>
+  </si>
+  <si>
+    <t>Number of blocks of night sleep  within the Sleep period time window.</t>
+  </si>
+  <si>
+    <t>Physical Activity</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Total volume of log-transformed physical activity</t>
+  </si>
+  <si>
+    <t>sed_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total daytime duration in minutes of sedentary activity  </t>
+  </si>
+  <si>
+    <t>light_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total daytime duration in minutes of light activity  </t>
+  </si>
+  <si>
+    <t>mod_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total daytime duration in minutes of moderate activity  </t>
+  </si>
+  <si>
+    <t>vig_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total daytime duration in minutes of vigorous activity  </t>
+  </si>
+  <si>
+    <t>MVPA_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total daytime duration in minutes of moderate to vigorous activity </t>
+  </si>
+  <si>
+    <t>activity_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total daytime duration in minutes of light/moderate/vigorous activity  </t>
+  </si>
+  <si>
+    <t>sed_time_M10</t>
+  </si>
+  <si>
+    <t>Total  duration in minutes of sedentary activity within M10 window</t>
+  </si>
+  <si>
+    <t>light_time_M10</t>
+  </si>
+  <si>
+    <t>Total  duration in minutes of light activity within M10 window</t>
+  </si>
+  <si>
+    <t>mod_time_M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of moderate activity within M10 window  </t>
+  </si>
+  <si>
+    <t>vig_time_M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of vigorous activity within M10 window  </t>
+  </si>
+  <si>
+    <t>MVPA_time_M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of moderate to vigorous activity within M10 window </t>
+  </si>
+  <si>
+    <t>activity_time_M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of light/moderate/vigorous activity within M10 window  </t>
+  </si>
+  <si>
+    <t>sed_time_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of sedentary activity within 24 hours  </t>
+  </si>
+  <si>
+    <t>light_time_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of light activity within 24 hours </t>
+  </si>
+  <si>
+    <t>mod_time_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of moderate activity  within 24 hours </t>
+  </si>
+  <si>
+    <t>vig_time_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of vigorous activity  within 24 hours </t>
+  </si>
+  <si>
+    <t>MVPA_time_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of moderate to vigorous activity within 24 hours </t>
+  </si>
+  <si>
+    <t>activity_time_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  duration in minutes of light/moderate/vigorous activity  within 24 hours </t>
+  </si>
+  <si>
+    <t>mean_r</t>
+  </si>
+  <si>
+    <t>average bout duration (resting)</t>
+  </si>
+  <si>
+    <t>mean_a</t>
+  </si>
+  <si>
+    <t>average bout duration (active)</t>
+  </si>
+  <si>
+    <t>SATP</t>
+  </si>
+  <si>
+    <t>sedentary-to-active transition probabilities</t>
+  </si>
+  <si>
+    <t>ASTP</t>
+  </si>
+  <si>
+    <t>active-to-sedentary transition probabilities</t>
+  </si>
+  <si>
+    <t>Gini_r</t>
+  </si>
+  <si>
+    <t>Gini index, absolute variability normalized to the average bout duration (resting)</t>
+  </si>
+  <si>
+    <t>Gini_a</t>
+  </si>
+  <si>
+    <t>Gini index, absolute variability normalized to the average bout duration (active)</t>
+  </si>
+  <si>
+    <t>alpha_r</t>
+  </si>
+  <si>
+    <t>power-law distribution parameter (resting)</t>
+  </si>
+  <si>
+    <t>alpha_a</t>
+  </si>
+  <si>
+    <t>power-law distribution parameter (active)</t>
+  </si>
+  <si>
+    <t>h_r</t>
+  </si>
+  <si>
+    <t>average hazard (resting)</t>
+  </si>
+  <si>
+    <t>h_a</t>
+  </si>
+  <si>
+    <t>average hazard (active)</t>
+  </si>
+  <si>
+    <t>dur_day_total_IN_min</t>
+  </si>
+  <si>
+    <t>dur_day_total_LIG_min</t>
+  </si>
+  <si>
+    <t>dur_day_total_MOD_min</t>
+  </si>
+  <si>
+    <t>dur_day_total_VIG_min</t>
+  </si>
+  <si>
+    <t>dur_day_MVPA_bts_10_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total duration in minutes of Moderate and Vigorous Physical Activity (MVPA) for bouts 10 minutes or more   </t>
+  </si>
+  <si>
+    <t>dur_day_MVPA_bts_5_10_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total duration in minutes of Moderate and Vigorous Physical Activity (MVPA) for bouts 5 to 10 minutes  </t>
+  </si>
+  <si>
+    <t>dur_day_MVPA_bts_1_5_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total duration in minutes of Moderate and Vigorous Physical Activity (MVPA) for bouts 1 to 5 minutes  </t>
+  </si>
+  <si>
+    <t>Nbouts_day_IN_bts_30</t>
+  </si>
+  <si>
+    <t>Number of bouts of inactivity for bouts 30 minutes or more</t>
+  </si>
+  <si>
+    <t>Nbouts_day_IN_bts_20_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bouts of inactivity for bouts 20 to 30 minutes  </t>
+  </si>
+  <si>
+    <t>Nbouts_day_IN_bts_10_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bouts of inactivity for bouts 10 to 20 minutes  </t>
+  </si>
+  <si>
+    <t>Nbouts_day_LIG_bts_10</t>
+  </si>
+  <si>
+    <t>Number of bouts of light for bouts 10 minutes or more</t>
+  </si>
+  <si>
+    <t>Nbouts_day_LIG_bts_5_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bouts of light for bouts 5 to 10 minutes  </t>
+  </si>
+  <si>
+    <t>Nbouts_day_LIG_bts_1_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bouts of light for bouts 1 to 5 minutes  </t>
+  </si>
+  <si>
+    <t>Nbouts_day_MVPA_bts_10</t>
+  </si>
+  <si>
+    <t>Number of bouts of Moderate and Vigorous Physical Activity (MVPA)  for bouts 10 minutes or more</t>
+  </si>
+  <si>
+    <t>Nbouts_day_MVPA_bts_5_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bouts of Moderate and Vigorous Physical Activity (MVPA)  for bouts 5 to 10 minutes  </t>
+  </si>
+  <si>
+    <t>Nbouts_day_MVPA_bts_1_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of bouts of Moderate and Vigorous Physical Activity (MVPA)  for bouts 1 to 5 minutes  </t>
+  </si>
+  <si>
+    <t>Nblocks_day_total_IN</t>
+  </si>
+  <si>
+    <t>Nblocks_day_total_LIG</t>
+  </si>
+  <si>
+    <t>Nblocks_day_total_MOD</t>
+  </si>
+  <si>
+    <t>Nblocks_day_total_VIG</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Relative amplitude: (M10VALUE-L5VALUE)/(M10VALUE+L5VALUE) where M10VALUE= most active 10 hrs, L5VALUE = least active 5 hour from GGIR output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative amplitude: (M10-L5)/(M10+L5) where M10= most active 10 hrs, L5 = least active 5 hour.  </t>
+  </si>
+  <si>
+    <t>Average acceleration value (mg) of the lowest Average acceleration 5 hours</t>
+  </si>
+  <si>
+    <t>Average acceleration value (mg) of the lowest Average acceleration value in highest Average acceleration 10 hours</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L5TIME</t>
+  </si>
+  <si>
+    <t>M10TIME</t>
+  </si>
+  <si>
+    <t>IV_intradailyvariability</t>
+  </si>
+  <si>
+    <t>part2</t>
+  </si>
+  <si>
+    <t>IS_interdailystability</t>
+  </si>
+  <si>
+    <t>Inter-daily stability measures fragmentation in the rest/activity rhythms</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>mesor</t>
+  </si>
+  <si>
+    <t>mesor (a rhythm-adjusted mean)</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>amplitude (a measure of variability around the mean)</t>
+  </si>
+  <si>
+    <t>acro</t>
+  </si>
+  <si>
+    <t>mesor_L</t>
+  </si>
+  <si>
+    <t>mesor log-transformed</t>
+  </si>
+  <si>
+    <t>amplitude log-transformed</t>
+  </si>
+  <si>
+    <t>acrophase log-transformed</t>
+  </si>
+  <si>
+    <t>1st principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>2nd principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>3rd principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>4th principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>5th principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>6th principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>7th principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>8th principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>9th principal component score from fPCA</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>10th principal component score from fPCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,27 +1234,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1012,8 +1267,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,18 +1349,40 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1220,123 +1559,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1616,839 +2040,839 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="106.5703125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="C7" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="19" t="s">
+    <row r="7" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="C7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="C8" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="19" t="s">
+    <row r="8" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="C8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="C9" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="9" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="C9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="C10" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="C11" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>276</v>
+    <row r="10" spans="1:4" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="C10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="C11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+    <row r="36" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+    <row r="40" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B45" s="24" t="s">
+      <c r="A45" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="C45" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" s="40" t="s">
+      <c r="A46" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" s="28" t="s">
+      <c r="A49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="30" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" s="30" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D54" s="30" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" s="32" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="19" t="s">
+      <c r="C56" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" s="42" t="s">
+      <c r="A57" s="15"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D58" s="42" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="30" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="A60" s="15"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="42" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="30" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D63" s="30" t="s">
+      <c r="A63" s="15"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D64" s="42" t="s">
-        <v>284</v>
+    <row r="64" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B65" s="28" t="s">
+      <c r="A65" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>273</v>
+      <c r="C65" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" s="28" t="s">
+      <c r="A66" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>276</v>
+      <c r="C66" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>277</v>
+      <c r="A67" s="5"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>278</v>
+      <c r="A68" s="11"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B69" s="28" t="s">
+      <c r="A69" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>276</v>
+      <c r="C69" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>293</v>
+      <c r="A70" s="5"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>295</v>
+      <c r="A71" s="5"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>296</v>
+      <c r="A72" s="5"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>294</v>
+      <c r="A73" s="5"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>297</v>
+      <c r="A74" s="5"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>298</v>
+      <c r="A75" s="11"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="D76" s="37"/>
+      <c r="A76" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="D77" s="25"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="18"/>
+      <c r="C78" s="6"/>
       <c r="D78"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,28 +2884,28 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D81"/>
     </row>
-    <row r="85" spans="1:4" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="47"/>
-    </row>
-    <row r="86" spans="1:4" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="47"/>
-    </row>
-    <row r="87" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="47"/>
-    </row>
-    <row r="88" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="47"/>
+    <row r="85" spans="1:4" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="35"/>
+    </row>
+    <row r="86" spans="1:4" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="35"/>
+    </row>
+    <row r="87" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="35"/>
+    </row>
+    <row r="88" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2504,194 +2928,194 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2702,523 +3126,1826 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA7404A-E53D-4E1B-ADF8-894BCE271B5E}">
-  <dimension ref="A2:C56"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="27.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="87.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="87"/>
+    <col min="2" max="2" width="11.5703125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="121.7109375" style="88" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="B2" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="4" t="s">
+      <c r="G4" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="G5" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="56" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="4" t="s">
+      <c r="G9" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="G10" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="4" t="s">
+      <c r="D11" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E11" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="61" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="4" t="s">
+      <c r="D12" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="65"/>
+      <c r="G21" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="G25" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="65"/>
+      <c r="G26" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="65"/>
+      <c r="G29" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="65"/>
+      <c r="G33" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="65"/>
+      <c r="G36" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="64"/>
+      <c r="B37" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="64"/>
+      <c r="B38" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="65"/>
+      <c r="G38" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="64"/>
+      <c r="B39" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="65"/>
+      <c r="G39" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="64"/>
+      <c r="B40" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="65"/>
+      <c r="G40" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="64"/>
+      <c r="B41" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="4" t="s">
+      <c r="G41" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="64"/>
+      <c r="B42" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="G42" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="64"/>
+      <c r="B43" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="G43" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="61" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="G44" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="64"/>
+      <c r="B45" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
+      <c r="B46" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="64"/>
+      <c r="B47" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="64"/>
+      <c r="B49" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="64"/>
+      <c r="B50" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="64"/>
+      <c r="B53" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="64"/>
+      <c r="B55" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="61"/>
+      <c r="G55" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="64"/>
+      <c r="B56" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="64"/>
+      <c r="B57" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="G57" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="64"/>
+      <c r="B58" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="61" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="G58" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="64"/>
+      <c r="B59" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" s="61" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="G59" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="64"/>
+      <c r="B60" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" s="61" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="G60" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="E61" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
+      <c r="B62" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="69"/>
+      <c r="G62" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="B63" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C63" s="69" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="7" t="s">
+      <c r="D63" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E63" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="72"/>
+      <c r="B64" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C64" s="69" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="7" t="s">
+      <c r="D64" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E64" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="72"/>
+      <c r="B65" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="69" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="7" t="s">
+      <c r="D65" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
+      <c r="B66" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="7" t="s">
+      <c r="D66" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E66" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G66" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="72"/>
+      <c r="B67" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E67" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" s="74"/>
+      <c r="G67" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="72"/>
+      <c r="B68" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="E68" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="74"/>
+      <c r="G68" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="72"/>
+      <c r="B69" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="D69" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="72"/>
+      <c r="B70" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C70" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="72"/>
+      <c r="B71" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" s="69"/>
+      <c r="G71" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="72"/>
+      <c r="B72" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="D72" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="E72" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" s="69"/>
+      <c r="G72" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="72"/>
+      <c r="B73" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D73" s="78" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="7" t="s">
+      <c r="E73" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="76"/>
+      <c r="G73" s="79" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="72"/>
+      <c r="B74" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="E74" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="F74" s="83"/>
+      <c r="G74" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="72"/>
+      <c r="B75" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="E75" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" s="69"/>
+      <c r="G75" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="72"/>
+      <c r="B76" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F76" s="74"/>
+      <c r="G76" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="72"/>
+      <c r="B77" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="D77" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="74"/>
+      <c r="G77" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="72"/>
+      <c r="B78" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="D78" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="69"/>
+      <c r="G78" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="72"/>
+      <c r="B79" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D79" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79" s="74"/>
+      <c r="G79" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="72"/>
+      <c r="B80" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="74" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="D80" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F80" s="74"/>
+      <c r="G80" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="72"/>
+      <c r="B81" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C81" s="74" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="7" t="s">
+      <c r="D81" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="E81" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" s="74"/>
+      <c r="G81" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="72"/>
+      <c r="B82" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D82" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="74"/>
+      <c r="G82" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="72"/>
+      <c r="B83" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C83" s="74" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="7" t="s">
+      <c r="D83" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="E83" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="74"/>
+      <c r="G83" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="72"/>
+      <c r="B84" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
+      <c r="D84" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="E84" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84" s="74"/>
+      <c r="G84" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="72"/>
+      <c r="B85" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="E85" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F85" s="74"/>
+      <c r="G85" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="72"/>
+      <c r="B86" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="E86" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F86" s="74"/>
+      <c r="G86" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="72"/>
+      <c r="B87" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="D87" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E87" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F87" s="74"/>
+      <c r="G87" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="72"/>
+      <c r="B88" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F88" s="74"/>
+      <c r="G88" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="72"/>
+      <c r="B89" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="D89" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="E89" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F89" s="74"/>
+      <c r="G89" s="84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="85"/>
+      <c r="B90" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C90" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="D90" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="E90" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="74"/>
+      <c r="G90" s="84" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A43"/>
-    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="A61:A90"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>